--- a/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,62</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 9,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 9,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,69; 19,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,97; 12,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,27; 14,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,07; 31,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,93; 10,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,01; 10,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,43; 26,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,45%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,31; 58,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,51; 54,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,8; 114,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,15; 41,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,33; 45,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,28; 105,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,01; 41,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,89; 43,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,58; 107,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,91; 7,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,66; 13,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,26; 13,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 11,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,6; 30,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,62; 9,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 8,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,36; 21,92</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,4; 63,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,36; 72,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,71; 122,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,23; 79,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,92; 66,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,17; 167,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,27; 64,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,57; 61,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,43; 138,95</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,3; 10,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 12,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 14,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 12,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,69; 14,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 6,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 10,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 12,86</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,94; 35,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,94; 110,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,72; 132,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,49; 88,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,11; 76,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,33; 90,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 51,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,18; 78,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,01; 96,32</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 5,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,14; 6,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,63; 11,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,28; 11,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 9,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,49; 23,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 8,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 7,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,98; 17,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,27; 44,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,48; 52,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,28; 92,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,25; 52,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,16; 41,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,11; 98,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,65; 45,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,28; 40,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,07; 91,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,64</t>
+          <t>15,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,8</t>
+          <t>27,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,62</t>
+          <t>23,33</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,86</t>
+          <t>10,92; 20,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,07; 31,4</t>
+          <t>24,1; 31,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 26,49</t>
+          <t>20,14; 26,22</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,9%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>89,35%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,8; 114,35</t>
+          <t>53,79; 114,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,28; 105,14</t>
+          <t>70,34; 105,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,58; 107,5</t>
+          <t>73,26; 106,3</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,05</t>
+          <t>20,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,01</t>
+          <t>14,85</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,1</t>
+          <t>2,78; 12,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 30,21</t>
+          <t>13,88; 39,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 21,92</t>
+          <t>9,82; 24,42</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>73,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>102,6%</t>
+          <t>112,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,71; 122,8</t>
+          <t>22,96; 108,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,17; 167,07</t>
+          <t>72,34; 219,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,43; 138,95</t>
+          <t>62,5; 164,38</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>9,8</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 12,64</t>
+          <t>3,99; 13,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 14,91</t>
+          <t>5,84; 15,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,86</t>
+          <t>6,67; 12,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,5%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,64%</t>
+          <t>55,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>64,97%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,72; 132,85</t>
+          <t>28,28; 137,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,33; 90,21</t>
+          <t>25,99; 92,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,01; 96,32</t>
+          <t>39,68; 96,91</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>18,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,85</t>
+          <t>13,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,63; 11,83</t>
+          <t>3,66; 11,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 23,64</t>
+          <t>13,59; 28,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,26</t>
+          <t>10,1; 19,56</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>61,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>75,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>71,23%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,28; 92,41</t>
+          <t>26,66; 83,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,11; 98,86</t>
+          <t>55,88; 126,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>61,07; 91,87</t>
+          <t>52,43; 102,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 9,84</t>
+          <t>2,22; 9,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,27</t>
+          <t>1,58; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 20,0</t>
+          <t>10,96; 20,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,51</t>
+          <t>5,58; 13,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 14,01</t>
+          <t>5,2; 13,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,1; 31,36</t>
+          <t>24,33; 31,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,23</t>
+          <t>5,02; 10,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,77</t>
+          <t>4,99; 10,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 26,22</t>
+          <t>20,37; 26,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 58,62</t>
+          <t>11,26; 57,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 54,79</t>
+          <t>6,89; 52,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,79; 114,57</t>
+          <t>55,18; 119,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,15; 41,72</t>
+          <t>16,23; 43,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,33; 45,66</t>
+          <t>15,57; 45,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,34; 105,25</t>
+          <t>71,84; 105,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 41,17</t>
+          <t>18,13; 42,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 43,17</t>
+          <t>17,99; 43,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,26; 106,3</t>
+          <t>73,84; 104,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,65</t>
+          <t>2,25; 6,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,68</t>
+          <t>3,21; 7,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 12,16</t>
+          <t>1,96; 12,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 13,78</t>
+          <t>7,69; 13,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 11,53</t>
+          <t>6,05; 11,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 39,88</t>
+          <t>13,5; 38,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,22</t>
+          <t>5,71; 9,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,63</t>
+          <t>5,25; 8,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,82; 24,42</t>
+          <t>10,25; 26,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 63,04</t>
+          <t>17,11; 63,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,36; 72,39</t>
+          <t>24,62; 72,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 108,95</t>
+          <t>20,05; 111,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,23; 79,68</t>
+          <t>38,92; 81,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,92; 66,51</t>
+          <t>29,7; 66,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,34; 219,15</t>
+          <t>71,31; 211,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 64,39</t>
+          <t>35,76; 66,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,57; 61,61</t>
+          <t>32,87; 61,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,5; 164,38</t>
+          <t>65,38; 166,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,31</t>
+          <t>-4,79; 3,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 10,94</t>
+          <t>2,15; 10,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 13,07</t>
+          <t>3,6; 12,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 14,1</t>
+          <t>2,23; 13,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 12,38</t>
+          <t>2,11; 12,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 15,27</t>
+          <t>5,73; 15,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,79</t>
+          <t>-0,02; 6,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,45</t>
+          <t>4,03; 10,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,96</t>
+          <t>6,61; 13,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 35,2</t>
+          <t>-36,92; 31,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 110,81</t>
+          <t>15,12; 111,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,28; 137,08</t>
+          <t>24,56; 121,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,49; 88,76</t>
+          <t>10,81; 81,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,11; 76,36</t>
+          <t>9,34; 75,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,99; 92,28</t>
+          <t>26,22; 91,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 51,35</t>
+          <t>-0,33; 49,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 78,16</t>
+          <t>23,92; 77,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,68; 96,91</t>
+          <t>39,61; 99,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,82</t>
+          <t>2,0; 5,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,86</t>
+          <t>3,02; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 11,12</t>
+          <t>3,92; 11,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,28; 11,85</t>
+          <t>7,42; 11,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,48</t>
+          <t>5,09; 9,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,77</t>
+          <t>13,77; 30,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,33</t>
+          <t>5,39; 8,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,49</t>
+          <t>4,74; 7,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 19,56</t>
+          <t>9,9; 19,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,27; 44,8</t>
+          <t>13,69; 44,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,48; 52,04</t>
+          <t>20,59; 52,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,66; 83,67</t>
+          <t>28,11; 84,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,25; 52,08</t>
+          <t>29,84; 51,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,16; 41,72</t>
+          <t>19,87; 40,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>55,88; 126,08</t>
+          <t>56,65; 127,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,65; 45,37</t>
+          <t>27,46; 44,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,28; 40,71</t>
+          <t>23,73; 41,17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,43; 102,97</t>
+          <t>51,35; 104,06</t>
         </is>
       </c>
     </row>
